--- a/stateAgency/sa.xlsx
+++ b/stateAgency/sa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="460" windowWidth="28400" windowHeight="26760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="50940" windowHeight="26760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY HR COUNT" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="823">
   <si>
     <t>AGENCY/BOARD/COMMISSION</t>
   </si>
@@ -2407,6 +2407,117 @@
   </si>
   <si>
     <t>http://www.bpm.ca.gov/about_us/meetings/archived_meetings.shtml#2016</t>
+  </si>
+  <si>
+    <t>AGENCY ABBREV.</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>CBED</t>
+  </si>
+  <si>
+    <t>CBSC</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>FTB</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>SPRC</t>
+  </si>
+  <si>
+    <t>CHFA</t>
+  </si>
+  <si>
+    <t>FPPC</t>
+  </si>
+  <si>
+    <t>IWMB</t>
+  </si>
+  <si>
+    <t>CPERS</t>
+  </si>
+  <si>
+    <t>CPUC</t>
+  </si>
+  <si>
+    <t>SLC</t>
+  </si>
+  <si>
+    <t>CWC</t>
+  </si>
+  <si>
+    <t>SWRCB</t>
+  </si>
+  <si>
+    <t>COVCAL</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>CSLB</t>
+  </si>
+  <si>
+    <t>DCA-BOA</t>
+  </si>
+  <si>
+    <t>DCA-AC</t>
+  </si>
+  <si>
+    <t>DCA-BARAG</t>
+  </si>
+  <si>
+    <t>DCA-BBS</t>
+  </si>
+  <si>
+    <t>DCA-BCE</t>
+  </si>
+  <si>
+    <t>DCA-CSLB</t>
+  </si>
+  <si>
+    <t>DCA-DBC</t>
+  </si>
+  <si>
+    <t>DCA-MBC</t>
+  </si>
+  <si>
+    <t>DCA-BOO</t>
+  </si>
+  <si>
+    <t>DCA-BOP</t>
+  </si>
+  <si>
+    <t>DCA-PTB</t>
+  </si>
+  <si>
+    <t>DCA-PAB</t>
+  </si>
+  <si>
+    <t>DCA-PPE</t>
+  </si>
+  <si>
+    <t>DCA-BRN</t>
+  </si>
+  <si>
+    <t>DCA-BVNPT</t>
+  </si>
+  <si>
+    <t>DCA-BPM</t>
+  </si>
+  <si>
+    <t>DCA-BRNWG</t>
+  </si>
+  <si>
+    <t>DCA-BRNAC</t>
   </si>
 </sst>
 </file>
@@ -3011,7 +3122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3249,6 +3360,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3291,42 +3438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3923,10 +4035,10 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="17">
         <f>SUM(C2:C13)</f>
         <v>45</v>
@@ -3940,7 +4052,7 @@
         <v>324</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="135">
+      <c r="G14" s="149">
         <f>C15</f>
         <v>51.59</v>
       </c>
@@ -3949,8 +4061,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="19">
         <f>SUM(D15/60)+C14</f>
         <v>51.59</v>
@@ -3964,7 +4076,7 @@
         <v>5.4</v>
       </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="136"/>
+      <c r="G15" s="150"/>
       <c r="H15" s="71" t="s">
         <v>158</v>
       </c>
@@ -4465,10 +4577,10 @@
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="132"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="17">
         <f>SUM(C18:C37)</f>
         <v>67</v>
@@ -4482,7 +4594,7 @@
         <v>439</v>
       </c>
       <c r="F38" s="20"/>
-      <c r="G38" s="135">
+      <c r="G38" s="149">
         <f>C39</f>
         <v>77.538611111111109</v>
       </c>
@@ -4491,8 +4603,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="134"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="19">
         <f>SUM(D39/60)+C38</f>
         <v>77.538611111111109</v>
@@ -4506,7 +4618,7 @@
         <v>7.3166666666666664</v>
       </c>
       <c r="F39" s="21"/>
-      <c r="G39" s="136"/>
+      <c r="G39" s="150"/>
       <c r="H39" s="35" t="s">
         <v>158</v>
       </c>
@@ -5367,10 +5479,10 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="131" t="s">
+      <c r="A77" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="132"/>
+      <c r="B77" s="146"/>
       <c r="C77" s="17">
         <f>SUM(C42:C76)</f>
         <v>186</v>
@@ -5384,7 +5496,7 @@
         <v>1120</v>
       </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="135">
+      <c r="G77" s="149">
         <f>C78</f>
         <v>202.9111111111111</v>
       </c>
@@ -5393,8 +5505,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="133"/>
-      <c r="B78" s="134"/>
+      <c r="A78" s="147"/>
+      <c r="B78" s="148"/>
       <c r="C78" s="19">
         <f>SUM(D78/60)+C77</f>
         <v>202.9111111111111</v>
@@ -5408,7 +5520,7 @@
         <v>18.666666666666668</v>
       </c>
       <c r="F78" s="21"/>
-      <c r="G78" s="136"/>
+      <c r="G78" s="150"/>
       <c r="H78" s="35" t="s">
         <v>158</v>
       </c>
@@ -5694,10 +5806,10 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="131" t="s">
+      <c r="A92" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="132"/>
+      <c r="B92" s="146"/>
       <c r="C92" s="17">
         <f>SUM(C81:C91)</f>
         <v>80</v>
@@ -5711,7 +5823,7 @@
         <v>295</v>
       </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="135">
+      <c r="G92" s="149">
         <f>C93</f>
         <v>85.31527777777778</v>
       </c>
@@ -5720,8 +5832,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="133"/>
-      <c r="B93" s="134"/>
+      <c r="A93" s="147"/>
+      <c r="B93" s="148"/>
       <c r="C93" s="19">
         <f>SUM(D93/60)+C92</f>
         <v>85.31527777777778</v>
@@ -5735,7 +5847,7 @@
         <v>4.916666666666667</v>
       </c>
       <c r="F93" s="21"/>
-      <c r="G93" s="136"/>
+      <c r="G93" s="150"/>
       <c r="H93" s="35" t="s">
         <v>158</v>
       </c>
@@ -6309,10 +6421,10 @@
       <c r="H118" s="51"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="131" t="s">
+      <c r="A119" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="132"/>
+      <c r="B119" s="146"/>
       <c r="C119" s="17">
         <f>SUM(C96:C118)</f>
         <v>122</v>
@@ -6326,7 +6438,7 @@
         <v>708</v>
       </c>
       <c r="F119" s="20"/>
-      <c r="G119" s="135">
+      <c r="G119" s="149">
         <f>C120</f>
         <v>133.19666666666666</v>
       </c>
@@ -6335,8 +6447,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="133"/>
-      <c r="B120" s="134"/>
+      <c r="A120" s="147"/>
+      <c r="B120" s="148"/>
       <c r="C120" s="19">
         <f>SUM(D120/60)+C119</f>
         <v>133.19666666666666</v>
@@ -6350,7 +6462,7 @@
         <v>11.8</v>
       </c>
       <c r="F120" s="21"/>
-      <c r="G120" s="136"/>
+      <c r="G120" s="150"/>
       <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6526,10 +6638,10 @@
       <c r="H129" s="51"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="131" t="s">
+      <c r="A130" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="132"/>
+      <c r="B130" s="146"/>
       <c r="C130" s="17">
         <f>SUM(C123:C129)</f>
         <v>13</v>
@@ -6543,7 +6655,7 @@
         <v>164</v>
       </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="135">
+      <c r="G130" s="149">
         <f>C131</f>
         <v>14.828888888888889</v>
       </c>
@@ -6552,8 +6664,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="133"/>
-      <c r="B131" s="134"/>
+      <c r="A131" s="147"/>
+      <c r="B131" s="148"/>
       <c r="C131" s="19">
         <f>SUM(D131/60)+C130</f>
         <v>14.828888888888889</v>
@@ -6567,7 +6679,7 @@
         <v>2.7333333333333334</v>
       </c>
       <c r="F131" s="21"/>
-      <c r="G131" s="136"/>
+      <c r="G131" s="150"/>
       <c r="H131" s="35"/>
     </row>
     <row r="132" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -6683,10 +6795,10 @@
       <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="137" t="s">
+      <c r="A138" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B138" s="138"/>
+      <c r="B138" s="152"/>
       <c r="C138" s="12">
         <f>SUM(C134:C137)</f>
         <v>4</v>
@@ -6700,7 +6812,7 @@
         <v>110</v>
       </c>
       <c r="F138" s="52"/>
-      <c r="G138" s="139">
+      <c r="G138" s="153">
         <f>C139</f>
         <v>5.3305555555555557</v>
       </c>
@@ -6709,8 +6821,8 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="133"/>
-      <c r="B139" s="134"/>
+      <c r="A139" s="147"/>
+      <c r="B139" s="148"/>
       <c r="C139" s="19">
         <f>SUM(D139/60)+C138</f>
         <v>5.3305555555555557</v>
@@ -6724,7 +6836,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="F139" s="21"/>
-      <c r="G139" s="136"/>
+      <c r="G139" s="150"/>
       <c r="H139" s="35"/>
     </row>
     <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7036,10 +7148,10 @@
       <c r="H153" s="26"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="131" t="s">
+      <c r="A154" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="132"/>
+      <c r="B154" s="146"/>
       <c r="C154" s="17">
         <f>SUM(C142:C153)</f>
         <v>23</v>
@@ -7053,7 +7165,7 @@
         <v>346</v>
       </c>
       <c r="F154" s="20"/>
-      <c r="G154" s="135">
+      <c r="G154" s="149">
         <f>C155</f>
         <v>27.496111111111112</v>
       </c>
@@ -7062,8 +7174,8 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="133"/>
-      <c r="B155" s="134"/>
+      <c r="A155" s="147"/>
+      <c r="B155" s="148"/>
       <c r="C155" s="19">
         <f>SUM(D155/60)+C154</f>
         <v>27.496111111111112</v>
@@ -7077,7 +7189,7 @@
         <v>5.7666666666666666</v>
       </c>
       <c r="F155" s="21"/>
-      <c r="G155" s="136"/>
+      <c r="G155" s="150"/>
       <c r="H155" s="35"/>
     </row>
     <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7291,10 +7403,10 @@
       <c r="H165" s="55"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="137" t="s">
+      <c r="A166" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B166" s="138"/>
+      <c r="B166" s="152"/>
       <c r="C166" s="12">
         <f>SUM(C158:C165)</f>
         <v>10</v>
@@ -7308,7 +7420,7 @@
         <v>195</v>
       </c>
       <c r="F166" s="52"/>
-      <c r="G166" s="139">
+      <c r="G166" s="153">
         <f>C167</f>
         <v>13.5375</v>
       </c>
@@ -7317,8 +7429,8 @@
       </c>
     </row>
     <row r="167" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="133"/>
-      <c r="B167" s="134"/>
+      <c r="A167" s="147"/>
+      <c r="B167" s="148"/>
       <c r="C167" s="19">
         <f>SUM(D167/60)+C166</f>
         <v>13.5375</v>
@@ -7332,7 +7444,7 @@
         <v>3.25</v>
       </c>
       <c r="F167" s="21"/>
-      <c r="G167" s="136"/>
+      <c r="G167" s="150"/>
       <c r="H167" s="35"/>
     </row>
     <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7620,10 +7732,10 @@
       <c r="H180" s="26"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="131" t="s">
+      <c r="A181" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B181" s="132"/>
+      <c r="B181" s="146"/>
       <c r="C181" s="17">
         <f>SUM(C170:C180)</f>
         <v>8</v>
@@ -7637,7 +7749,7 @@
         <v>431</v>
       </c>
       <c r="F181" s="20"/>
-      <c r="G181" s="135">
+      <c r="G181" s="149">
         <f>C182</f>
         <v>14.269722222222223</v>
       </c>
@@ -7646,8 +7758,8 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="133"/>
-      <c r="B182" s="134"/>
+      <c r="A182" s="147"/>
+      <c r="B182" s="148"/>
       <c r="C182" s="19">
         <f>SUM(D182/60)+C181</f>
         <v>14.269722222222223</v>
@@ -7661,7 +7773,7 @@
         <v>7.1833333333333336</v>
       </c>
       <c r="F182" s="21"/>
-      <c r="G182" s="136"/>
+      <c r="G182" s="150"/>
       <c r="H182" s="35"/>
     </row>
     <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7949,10 +8061,10 @@
       <c r="H195" s="26"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="131" t="s">
+      <c r="A196" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B196" s="132"/>
+      <c r="B196" s="146"/>
       <c r="C196" s="17">
         <f>SUM(C185:C195)</f>
         <v>7</v>
@@ -7966,7 +8078,7 @@
         <v>374</v>
       </c>
       <c r="F196" s="20"/>
-      <c r="G196" s="135">
+      <c r="G196" s="149">
         <f>C197</f>
         <v>12.087222222222223</v>
       </c>
@@ -7975,8 +8087,8 @@
       </c>
     </row>
     <row r="197" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="133"/>
-      <c r="B197" s="134"/>
+      <c r="A197" s="147"/>
+      <c r="B197" s="148"/>
       <c r="C197" s="19">
         <f>SUM(D197/60)+C196</f>
         <v>12.087222222222223</v>
@@ -7990,7 +8102,7 @@
         <v>6.2333333333333334</v>
       </c>
       <c r="F197" s="21"/>
-      <c r="G197" s="136"/>
+      <c r="G197" s="150"/>
       <c r="H197" s="35"/>
     </row>
     <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9766,10 +9878,10 @@
       <c r="H272" s="26"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="131" t="s">
+      <c r="A273" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B273" s="132"/>
+      <c r="B273" s="146"/>
       <c r="C273" s="17">
         <f>SUM(C200:C272)</f>
         <v>66</v>
@@ -9783,7 +9895,7 @@
         <v>2153</v>
       </c>
       <c r="F273" s="20"/>
-      <c r="G273" s="135">
+      <c r="G273" s="149">
         <f>C274</f>
         <v>102.29805555555555</v>
       </c>
@@ -9792,8 +9904,8 @@
       </c>
     </row>
     <row r="274" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="133"/>
-      <c r="B274" s="134"/>
+      <c r="A274" s="147"/>
+      <c r="B274" s="148"/>
       <c r="C274" s="19">
         <f>SUM(D274/60)+C273</f>
         <v>102.29805555555555</v>
@@ -9807,7 +9919,7 @@
         <v>35.883333333333333</v>
       </c>
       <c r="F274" s="21"/>
-      <c r="G274" s="136"/>
+      <c r="G274" s="150"/>
       <c r="H274" s="35"/>
     </row>
     <row r="275" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11031,10 +11143,10 @@
       <c r="H326" s="26"/>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A327" s="131" t="s">
+      <c r="A327" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B327" s="132"/>
+      <c r="B327" s="146"/>
       <c r="C327" s="17">
         <f>SUM(C277:C326)</f>
         <v>104</v>
@@ -11048,7 +11160,7 @@
         <v>1733</v>
       </c>
       <c r="F327" s="20"/>
-      <c r="G327" s="135">
+      <c r="G327" s="149">
         <f>C328</f>
         <v>131.98138888888889</v>
       </c>
@@ -11057,8 +11169,8 @@
       </c>
     </row>
     <row r="328" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="133"/>
-      <c r="B328" s="134"/>
+      <c r="A328" s="147"/>
+      <c r="B328" s="148"/>
       <c r="C328" s="19">
         <f>SUM(D328/60)+C327</f>
         <v>131.98138888888889</v>
@@ -11072,7 +11184,7 @@
         <v>28.883333333333333</v>
       </c>
       <c r="F328" s="21"/>
-      <c r="G328" s="136"/>
+      <c r="G328" s="150"/>
       <c r="H328" s="35" t="s">
         <v>158</v>
       </c>
@@ -11221,10 +11333,10 @@
       <c r="H335" s="26"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A336" s="131" t="s">
+      <c r="A336" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B336" s="132"/>
+      <c r="B336" s="146"/>
       <c r="C336" s="17">
         <f>SUM(C331:C335)</f>
         <v>8</v>
@@ -11238,7 +11350,7 @@
         <v>172</v>
       </c>
       <c r="F336" s="20"/>
-      <c r="G336" s="135">
+      <c r="G336" s="149">
         <f>C337</f>
         <v>10.031111111111111</v>
       </c>
@@ -11247,8 +11359,8 @@
       </c>
     </row>
     <row r="337" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="133"/>
-      <c r="B337" s="134"/>
+      <c r="A337" s="147"/>
+      <c r="B337" s="148"/>
       <c r="C337" s="19">
         <f>SUM(D337/60)+C336</f>
         <v>10.031111111111111</v>
@@ -11262,7 +11374,7 @@
         <v>2.8666666666666667</v>
       </c>
       <c r="F337" s="21"/>
-      <c r="G337" s="136"/>
+      <c r="G337" s="150"/>
       <c r="H337" s="35" t="s">
         <v>158</v>
       </c>
@@ -12752,10 +12864,10 @@
       <c r="H400" s="26"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" s="131" t="s">
+      <c r="A401" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B401" s="132"/>
+      <c r="B401" s="146"/>
       <c r="C401" s="17">
         <f>SUM(C340:C400)</f>
         <v>28</v>
@@ -12769,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="F401" s="20"/>
-      <c r="G401" s="135">
+      <c r="G401" s="149">
         <f>C402</f>
         <v>58.883333333333333</v>
       </c>
@@ -12778,8 +12890,8 @@
       </c>
     </row>
     <row r="402" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="133"/>
-      <c r="B402" s="134"/>
+      <c r="A402" s="147"/>
+      <c r="B402" s="148"/>
       <c r="C402" s="19">
         <f>SUM(D402/60)+C401</f>
         <v>58.883333333333333</v>
@@ -12793,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="F402" s="21"/>
-      <c r="G402" s="136"/>
+      <c r="G402" s="150"/>
       <c r="H402" s="35"/>
     </row>
     <row r="403" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -12835,10 +12947,10 @@
       <c r="F405" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G405" s="140" t="s">
+      <c r="G405" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="H405" s="141"/>
+      <c r="H405" s="155"/>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="34" t="s">
@@ -12857,8 +12969,8 @@
       <c r="F406" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G406" s="142"/>
-      <c r="H406" s="143"/>
+      <c r="G406" s="156"/>
+      <c r="H406" s="157"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="34" t="s">
@@ -12877,8 +12989,8 @@
       <c r="F407" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G407" s="142"/>
-      <c r="H407" s="143"/>
+      <c r="G407" s="156"/>
+      <c r="H407" s="157"/>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="34" t="s">
@@ -12897,8 +13009,8 @@
       <c r="F408" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G408" s="142"/>
-      <c r="H408" s="143"/>
+      <c r="G408" s="156"/>
+      <c r="H408" s="157"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="34" t="s">
@@ -12917,8 +13029,8 @@
       <c r="F409" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G409" s="142"/>
-      <c r="H409" s="143"/>
+      <c r="G409" s="156"/>
+      <c r="H409" s="157"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="34" t="s">
@@ -12937,8 +13049,8 @@
       <c r="F410" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G410" s="142"/>
-      <c r="H410" s="143"/>
+      <c r="G410" s="156"/>
+      <c r="H410" s="157"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="34" t="s">
@@ -12959,8 +13071,8 @@
       <c r="F411" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G411" s="144"/>
-      <c r="H411" s="143"/>
+      <c r="G411" s="158"/>
+      <c r="H411" s="157"/>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="34" t="s">
@@ -15985,10 +16097,10 @@
       <c r="H553" s="26"/>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A554" s="131" t="s">
+      <c r="A554" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B554" s="132"/>
+      <c r="B554" s="146"/>
       <c r="C554" s="17">
         <f>SUM(C405:C553)</f>
         <v>13</v>
@@ -16002,7 +16114,7 @@
         <v>4569</v>
       </c>
       <c r="F554" s="20"/>
-      <c r="G554" s="135">
+      <c r="G554" s="149">
         <f>C555</f>
         <v>47.435833333333335</v>
       </c>
@@ -16011,8 +16123,8 @@
       </c>
     </row>
     <row r="555" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="133"/>
-      <c r="B555" s="134"/>
+      <c r="A555" s="147"/>
+      <c r="B555" s="148"/>
       <c r="C555" s="19">
         <f>SUM(D555/60)+C554</f>
         <v>47.435833333333335</v>
@@ -16026,7 +16138,7 @@
         <v>76.150000000000006</v>
       </c>
       <c r="F555" s="21"/>
-      <c r="G555" s="136"/>
+      <c r="G555" s="150"/>
       <c r="H555" s="35" t="s">
         <v>101</v>
       </c>
@@ -20446,10 +20558,10 @@
       <c r="H740" s="26"/>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A741" s="131" t="s">
+      <c r="A741" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B741" s="132"/>
+      <c r="B741" s="146"/>
       <c r="C741" s="17">
         <f>SUM(C558:C740)</f>
         <v>94</v>
@@ -20463,15 +20575,15 @@
         <v>4799</v>
       </c>
       <c r="F741" s="20"/>
-      <c r="G741" s="135">
+      <c r="G741" s="149">
         <f>C742</f>
         <v>220.73305555555555</v>
       </c>
       <c r="H741" s="32"/>
     </row>
     <row r="742" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="133"/>
-      <c r="B742" s="134"/>
+      <c r="A742" s="147"/>
+      <c r="B742" s="148"/>
       <c r="C742" s="19">
         <f>SUM(D742/60)+C741</f>
         <v>220.73305555555555</v>
@@ -20485,7 +20597,7 @@
         <v>79.983333333333334</v>
       </c>
       <c r="F742" s="21"/>
-      <c r="G742" s="136"/>
+      <c r="G742" s="150"/>
       <c r="H742" s="35"/>
     </row>
     <row r="743" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -20703,10 +20815,10 @@
       <c r="H752" s="35"/>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A753" s="137" t="s">
+      <c r="A753" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B753" s="138"/>
+      <c r="B753" s="152"/>
       <c r="C753" s="12">
         <f>SUM(C745:C752)</f>
         <v>18</v>
@@ -20720,15 +20832,15 @@
         <v>261</v>
       </c>
       <c r="F753" s="52"/>
-      <c r="G753" s="139">
+      <c r="G753" s="153">
         <f>C754*2</f>
         <v>42.811666666666667</v>
       </c>
       <c r="H753" s="26"/>
     </row>
     <row r="754" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="133"/>
-      <c r="B754" s="134"/>
+      <c r="A754" s="147"/>
+      <c r="B754" s="148"/>
       <c r="C754" s="19">
         <f>SUM(D754/60)+C753</f>
         <v>21.405833333333334</v>
@@ -20742,7 +20854,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="F754" s="21"/>
-      <c r="G754" s="136"/>
+      <c r="G754" s="150"/>
       <c r="H754" s="35"/>
     </row>
     <row r="755" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21176,10 +21288,10 @@
       <c r="H773" s="35"/>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A774" s="131" t="s">
+      <c r="A774" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B774" s="132"/>
+      <c r="B774" s="146"/>
       <c r="C774" s="17">
         <f>SUM(C757:C773)</f>
         <v>19</v>
@@ -21193,7 +21305,7 @@
         <v>567</v>
       </c>
       <c r="F774" s="20"/>
-      <c r="G774" s="135">
+      <c r="G774" s="149">
         <f>C775</f>
         <v>27.090833333333332</v>
       </c>
@@ -21202,8 +21314,8 @@
       </c>
     </row>
     <row r="775" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="133"/>
-      <c r="B775" s="134"/>
+      <c r="A775" s="147"/>
+      <c r="B775" s="148"/>
       <c r="C775" s="19">
         <f>SUM(D775/60)+C774</f>
         <v>27.090833333333332</v>
@@ -21217,7 +21329,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="F775" s="21"/>
-      <c r="G775" s="136"/>
+      <c r="G775" s="150"/>
       <c r="H775" s="35"/>
     </row>
     <row r="776" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21533,10 +21645,10 @@
       <c r="H791" s="35"/>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A792" s="131" t="s">
+      <c r="A792" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B792" s="132"/>
+      <c r="B792" s="146"/>
       <c r="C792" s="17">
         <f>SUM(C781:C791)</f>
         <v>15</v>
@@ -21550,7 +21662,7 @@
         <v>349</v>
       </c>
       <c r="F792" s="20"/>
-      <c r="G792" s="135">
+      <c r="G792" s="149">
         <f>C793</f>
         <v>21.46361111111111</v>
       </c>
@@ -21559,8 +21671,8 @@
       </c>
     </row>
     <row r="793" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="133"/>
-      <c r="B793" s="134"/>
+      <c r="A793" s="147"/>
+      <c r="B793" s="148"/>
       <c r="C793" s="19">
         <f>SUM(D793/60)+C792</f>
         <v>21.46361111111111</v>
@@ -21574,7 +21686,7 @@
         <v>5.8166666666666664</v>
       </c>
       <c r="F793" s="21"/>
-      <c r="G793" s="136"/>
+      <c r="G793" s="150"/>
       <c r="H793" s="35"/>
     </row>
     <row r="794" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -22266,10 +22378,10 @@
       <c r="H823" s="35"/>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A824" s="137" t="s">
+      <c r="A824" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B824" s="138"/>
+      <c r="B824" s="152"/>
       <c r="C824" s="12">
         <f>SUM(C796:C823)</f>
         <v>21</v>
@@ -22283,7 +22395,7 @@
         <v>846</v>
       </c>
       <c r="F824" s="52"/>
-      <c r="G824" s="139">
+      <c r="G824" s="153">
         <f>C825</f>
         <v>34.034999999999997</v>
       </c>
@@ -22292,8 +22404,8 @@
       </c>
     </row>
     <row r="825" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="133"/>
-      <c r="B825" s="134"/>
+      <c r="A825" s="147"/>
+      <c r="B825" s="148"/>
       <c r="C825" s="19">
         <f>SUM(D825/60)+C824</f>
         <v>34.034999999999997</v>
@@ -22307,7 +22419,7 @@
         <v>14.1</v>
       </c>
       <c r="F825" s="21"/>
-      <c r="G825" s="136"/>
+      <c r="G825" s="150"/>
       <c r="H825" s="35" t="s">
         <v>189</v>
       </c>
@@ -22449,10 +22561,10 @@
       <c r="H832" s="55"/>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A833" s="137" t="s">
+      <c r="A833" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B833" s="138"/>
+      <c r="B833" s="152"/>
       <c r="C833" s="12">
         <f>SUM(C828:C832)</f>
         <v>16</v>
@@ -22466,7 +22578,7 @@
         <v>140</v>
       </c>
       <c r="F833" s="52"/>
-      <c r="G833" s="139">
+      <c r="G833" s="153">
         <f>C834</f>
         <v>18.038888888888888</v>
       </c>
@@ -22475,8 +22587,8 @@
       </c>
     </row>
     <row r="834" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="133"/>
-      <c r="B834" s="134"/>
+      <c r="A834" s="147"/>
+      <c r="B834" s="148"/>
       <c r="C834" s="19">
         <f>SUM(D834/60)+C833</f>
         <v>18.038888888888888</v>
@@ -22490,7 +22602,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="F834" s="21"/>
-      <c r="G834" s="136"/>
+      <c r="G834" s="150"/>
       <c r="H834" s="35"/>
     </row>
     <row r="835" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -22606,10 +22718,10 @@
       <c r="H840" s="35"/>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A841" s="137" t="s">
+      <c r="A841" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B841" s="138"/>
+      <c r="B841" s="152"/>
       <c r="C841" s="12">
         <f>SUM(C837:C840)</f>
         <v>7</v>
@@ -22623,7 +22735,7 @@
         <v>167</v>
       </c>
       <c r="F841" s="52"/>
-      <c r="G841" s="139">
+      <c r="G841" s="153">
         <f>C842</f>
         <v>9.7963888888888881</v>
       </c>
@@ -22632,8 +22744,8 @@
       </c>
     </row>
     <row r="842" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="133"/>
-      <c r="B842" s="134"/>
+      <c r="A842" s="147"/>
+      <c r="B842" s="148"/>
       <c r="C842" s="19">
         <f>SUM(D842/60)+C841</f>
         <v>9.7963888888888881</v>
@@ -22647,7 +22759,7 @@
         <v>2.7833333333333332</v>
       </c>
       <c r="F842" s="21"/>
-      <c r="G842" s="136"/>
+      <c r="G842" s="150"/>
       <c r="H842" s="35"/>
     </row>
     <row r="843" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -22859,10 +22971,10 @@
       <c r="H852" s="35"/>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A853" s="137" t="s">
+      <c r="A853" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B853" s="138"/>
+      <c r="B853" s="152"/>
       <c r="C853" s="12">
         <f>SUM(C845:C852)</f>
         <v>30</v>
@@ -22876,7 +22988,7 @@
         <v>194</v>
       </c>
       <c r="F853" s="52"/>
-      <c r="G853" s="139">
+      <c r="G853" s="153">
         <f>C854</f>
         <v>32.687222222222225</v>
       </c>
@@ -22885,8 +22997,8 @@
       </c>
     </row>
     <row r="854" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="133"/>
-      <c r="B854" s="134"/>
+      <c r="A854" s="147"/>
+      <c r="B854" s="148"/>
       <c r="C854" s="19">
         <f>SUM(D854/60)+C853</f>
         <v>32.687222222222225</v>
@@ -22900,7 +23012,7 @@
         <v>3.2333333333333334</v>
       </c>
       <c r="F854" s="21"/>
-      <c r="G854" s="136"/>
+      <c r="G854" s="150"/>
       <c r="H854" s="35"/>
     </row>
     <row r="855" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -22984,10 +23096,10 @@
       <c r="H860" s="99"/>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A861" s="131" t="s">
+      <c r="A861" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B861" s="132"/>
+      <c r="B861" s="146"/>
       <c r="C861" s="17">
         <f>SUM(C857:C860)</f>
         <v>0</v>
@@ -23001,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="F861" s="20"/>
-      <c r="G861" s="135">
+      <c r="G861" s="149">
         <f>C862</f>
         <v>0</v>
       </c>
@@ -23010,8 +23122,8 @@
       </c>
     </row>
     <row r="862" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="133"/>
-      <c r="B862" s="134"/>
+      <c r="A862" s="147"/>
+      <c r="B862" s="148"/>
       <c r="C862" s="19">
         <f>SUM(D862/60)+C861</f>
         <v>0</v>
@@ -23025,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="F862" s="21"/>
-      <c r="G862" s="136"/>
+      <c r="G862" s="150"/>
       <c r="H862" s="35"/>
     </row>
     <row r="863" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -23261,10 +23373,10 @@
       <c r="H873" s="35"/>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A874" s="131" t="s">
+      <c r="A874" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B874" s="132"/>
+      <c r="B874" s="146"/>
       <c r="C874" s="17">
         <f>SUM(C865:C873)</f>
         <v>12</v>
@@ -23278,7 +23390,7 @@
         <v>173</v>
       </c>
       <c r="F874" s="20"/>
-      <c r="G874" s="135">
+      <c r="G874" s="149">
         <f>C875</f>
         <v>17.881388888888889</v>
       </c>
@@ -23287,8 +23399,8 @@
       </c>
     </row>
     <row r="875" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="133"/>
-      <c r="B875" s="134"/>
+      <c r="A875" s="147"/>
+      <c r="B875" s="148"/>
       <c r="C875" s="19">
         <f>SUM(D875/60)+C874</f>
         <v>17.881388888888889</v>
@@ -23302,7 +23414,7 @@
         <v>2.8833333333333333</v>
       </c>
       <c r="F875" s="21"/>
-      <c r="G875" s="136"/>
+      <c r="G875" s="150"/>
       <c r="H875" s="35"/>
     </row>
     <row r="876" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -23502,10 +23614,10 @@
       <c r="H886" s="26"/>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A887" s="131" t="s">
+      <c r="A887" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B887" s="132"/>
+      <c r="B887" s="146"/>
       <c r="C887" s="17">
         <f>SUM(C878:C886)</f>
         <v>36</v>
@@ -23519,7 +23631,7 @@
         <v>253</v>
       </c>
       <c r="F887" s="20"/>
-      <c r="G887" s="135">
+      <c r="G887" s="149">
         <f>C888</f>
         <v>38.886944444444445</v>
       </c>
@@ -23528,8 +23640,8 @@
       </c>
     </row>
     <row r="888" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="133"/>
-      <c r="B888" s="134"/>
+      <c r="A888" s="147"/>
+      <c r="B888" s="148"/>
       <c r="C888" s="19">
         <f>SUM(D888/60)+C887</f>
         <v>38.886944444444445</v>
@@ -23543,7 +23655,7 @@
         <v>4.2166666666666668</v>
       </c>
       <c r="F888" s="21"/>
-      <c r="G888" s="136"/>
+      <c r="G888" s="150"/>
       <c r="H888" s="35"/>
     </row>
     <row r="889" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -24115,10 +24227,10 @@
       <c r="H913" s="35"/>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A914" s="137" t="s">
+      <c r="A914" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B914" s="138"/>
+      <c r="B914" s="152"/>
       <c r="C914" s="12">
         <f>SUM(C891:C913)</f>
         <v>32</v>
@@ -24132,7 +24244,7 @@
         <v>692</v>
       </c>
       <c r="F914" s="52"/>
-      <c r="G914" s="139">
+      <c r="G914" s="153">
         <f>C915</f>
         <v>43.958888888888886</v>
       </c>
@@ -24141,8 +24253,8 @@
       </c>
     </row>
     <row r="915" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="133"/>
-      <c r="B915" s="134"/>
+      <c r="A915" s="147"/>
+      <c r="B915" s="148"/>
       <c r="C915" s="19">
         <f>SUM(D915/60)+C914</f>
         <v>43.958888888888886</v>
@@ -24156,7 +24268,7 @@
         <v>11.533333333333333</v>
       </c>
       <c r="F915" s="21"/>
-      <c r="G915" s="136"/>
+      <c r="G915" s="150"/>
       <c r="H915" s="35"/>
     </row>
     <row r="916" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -24297,10 +24409,10 @@
       <c r="H922" s="35"/>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A923" s="137" t="s">
+      <c r="A923" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B923" s="138"/>
+      <c r="B923" s="152"/>
       <c r="C923" s="12">
         <f>SUM(C918:C922)</f>
         <v>15</v>
@@ -24314,7 +24426,7 @@
         <v>210</v>
       </c>
       <c r="F923" s="52"/>
-      <c r="G923" s="139">
+      <c r="G923" s="153">
         <f>C924</f>
         <v>17.858333333333334</v>
       </c>
@@ -24323,8 +24435,8 @@
       </c>
     </row>
     <row r="924" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="133"/>
-      <c r="B924" s="134"/>
+      <c r="A924" s="147"/>
+      <c r="B924" s="148"/>
       <c r="C924" s="19">
         <f>SUM(D924/60)+C923</f>
         <v>17.858333333333334</v>
@@ -24338,7 +24450,7 @@
         <v>3.5</v>
       </c>
       <c r="F924" s="21"/>
-      <c r="G924" s="136"/>
+      <c r="G924" s="150"/>
       <c r="H924" s="35"/>
     </row>
     <row r="925" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -24670,10 +24782,10 @@
       <c r="H939" s="26"/>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A940" s="137" t="s">
+      <c r="A940" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B940" s="138"/>
+      <c r="B940" s="152"/>
       <c r="C940" s="12">
         <f>SUM(C927:C939)</f>
         <v>57</v>
@@ -24687,7 +24799,7 @@
         <v>405</v>
       </c>
       <c r="F940" s="52"/>
-      <c r="G940" s="139">
+      <c r="G940" s="153">
         <f>C941</f>
         <v>61.545833333333334</v>
       </c>
@@ -24696,8 +24808,8 @@
       </c>
     </row>
     <row r="941" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="133"/>
-      <c r="B941" s="134"/>
+      <c r="A941" s="147"/>
+      <c r="B941" s="148"/>
       <c r="C941" s="19">
         <f>SUM(D941/60)+C940</f>
         <v>61.545833333333334</v>
@@ -24711,7 +24823,7 @@
         <v>6.75</v>
       </c>
       <c r="F941" s="21"/>
-      <c r="G941" s="136"/>
+      <c r="G941" s="150"/>
       <c r="H941" s="35"/>
     </row>
     <row r="942" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -24831,10 +24943,10 @@
       <c r="H948" s="26"/>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A949" s="131" t="s">
+      <c r="A949" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B949" s="132"/>
+      <c r="B949" s="146"/>
       <c r="C949" s="17">
         <f>SUM(C944:C948)</f>
         <v>15</v>
@@ -24848,7 +24960,7 @@
         <v>250</v>
       </c>
       <c r="F949" s="20"/>
-      <c r="G949" s="135">
+      <c r="G949" s="149">
         <f>C950</f>
         <v>17.602777777777778</v>
       </c>
@@ -24857,8 +24969,8 @@
       </c>
     </row>
     <row r="950" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="133"/>
-      <c r="B950" s="134"/>
+      <c r="A950" s="147"/>
+      <c r="B950" s="148"/>
       <c r="C950" s="19">
         <f>SUM(D950/60)+C949</f>
         <v>17.602777777777778</v>
@@ -24872,7 +24984,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="F950" s="21"/>
-      <c r="G950" s="136"/>
+      <c r="G950" s="150"/>
       <c r="H950" s="35"/>
     </row>
     <row r="951" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -24964,10 +25076,10 @@
       <c r="H955" s="26"/>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A956" s="131" t="s">
+      <c r="A956" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B956" s="132"/>
+      <c r="B956" s="146"/>
       <c r="C956" s="17">
         <f>SUM(C953:C955)</f>
         <v>9</v>
@@ -24981,7 +25093,7 @@
         <v>37</v>
       </c>
       <c r="F956" s="20"/>
-      <c r="G956" s="135">
+      <c r="G956" s="149">
         <f>C957</f>
         <v>10.093611111111111</v>
       </c>
@@ -24990,8 +25102,8 @@
       </c>
     </row>
     <row r="957" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="133"/>
-      <c r="B957" s="134"/>
+      <c r="A957" s="147"/>
+      <c r="B957" s="148"/>
       <c r="C957" s="19">
         <f>SUM(D957/60)+C956</f>
         <v>10.093611111111111</v>
@@ -25005,7 +25117,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="F957" s="21"/>
-      <c r="G957" s="136"/>
+      <c r="G957" s="150"/>
       <c r="H957" s="35"/>
     </row>
     <row r="958" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -25145,10 +25257,10 @@
       <c r="H964" s="26"/>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A965" s="131" t="s">
+      <c r="A965" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B965" s="132"/>
+      <c r="B965" s="146"/>
       <c r="C965" s="17">
         <f>SUM(C960:C964)</f>
         <v>11</v>
@@ -25162,7 +25274,7 @@
         <v>146</v>
       </c>
       <c r="F965" s="20"/>
-      <c r="G965" s="135">
+      <c r="G965" s="149">
         <f>C966</f>
         <v>13.723888888888888</v>
       </c>
@@ -25171,8 +25283,8 @@
       </c>
     </row>
     <row r="966" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="133"/>
-      <c r="B966" s="134"/>
+      <c r="A966" s="147"/>
+      <c r="B966" s="148"/>
       <c r="C966" s="19">
         <f>SUM(D966/60)+C965</f>
         <v>13.723888888888888</v>
@@ -25186,7 +25298,7 @@
         <v>2.4333333333333331</v>
       </c>
       <c r="F966" s="21"/>
-      <c r="G966" s="136"/>
+      <c r="G966" s="150"/>
       <c r="H966" s="35"/>
     </row>
     <row r="967" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -25302,10 +25414,10 @@
       <c r="H972" s="26"/>
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A973" s="131" t="s">
+      <c r="A973" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B973" s="132"/>
+      <c r="B973" s="146"/>
       <c r="C973" s="17">
         <f>SUM(C969:C972)</f>
         <v>15</v>
@@ -25319,7 +25431,7 @@
         <v>187</v>
       </c>
       <c r="F973" s="20"/>
-      <c r="G973" s="135">
+      <c r="G973" s="149">
         <f>C974</f>
         <v>17.185277777777777</v>
       </c>
@@ -25328,8 +25440,8 @@
       </c>
     </row>
     <row r="974" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="133"/>
-      <c r="B974" s="134"/>
+      <c r="A974" s="147"/>
+      <c r="B974" s="148"/>
       <c r="C974" s="19">
         <f>SUM(D974/60)+C973</f>
         <v>17.185277777777777</v>
@@ -25343,7 +25455,7 @@
         <v>3.1166666666666667</v>
       </c>
       <c r="F974" s="21"/>
-      <c r="G974" s="136"/>
+      <c r="G974" s="150"/>
       <c r="H974" s="35"/>
     </row>
     <row r="975" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -25553,10 +25665,10 @@
       <c r="H984" s="26"/>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A985" s="131" t="s">
+      <c r="A985" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B985" s="132"/>
+      <c r="B985" s="146"/>
       <c r="C985" s="17">
         <f>SUM(C977:C984)</f>
         <v>23</v>
@@ -25570,7 +25682,7 @@
         <v>335</v>
       </c>
       <c r="F985" s="20"/>
-      <c r="G985" s="135">
+      <c r="G985" s="149">
         <f>C986</f>
         <v>27.12638888888889</v>
       </c>
@@ -25579,8 +25691,8 @@
       </c>
     </row>
     <row r="986" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="133"/>
-      <c r="B986" s="134"/>
+      <c r="A986" s="147"/>
+      <c r="B986" s="148"/>
       <c r="C986" s="19">
         <f>SUM(D986/60)+C985</f>
         <v>27.12638888888889</v>
@@ -25594,7 +25706,7 @@
         <v>5.583333333333333</v>
       </c>
       <c r="F986" s="21"/>
-      <c r="G986" s="136"/>
+      <c r="G986" s="150"/>
       <c r="H986" s="35"/>
     </row>
     <row r="987" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -25782,10 +25894,10 @@
       <c r="H995" s="26"/>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A996" s="131" t="s">
+      <c r="A996" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B996" s="132"/>
+      <c r="B996" s="146"/>
       <c r="C996" s="17">
         <f>SUM(C989:C995)</f>
         <v>33</v>
@@ -25799,7 +25911,7 @@
         <v>180</v>
       </c>
       <c r="F996" s="20"/>
-      <c r="G996" s="135">
+      <c r="G996" s="149">
         <f>C997</f>
         <v>37.283333333333331</v>
       </c>
@@ -25808,8 +25920,8 @@
       </c>
     </row>
     <row r="997" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="133"/>
-      <c r="B997" s="134"/>
+      <c r="A997" s="147"/>
+      <c r="B997" s="148"/>
       <c r="C997" s="19">
         <f>SUM(D997/60)+C996</f>
         <v>37.283333333333331</v>
@@ -25823,7 +25935,7 @@
         <v>3</v>
       </c>
       <c r="F997" s="21"/>
-      <c r="G997" s="136"/>
+      <c r="G997" s="150"/>
       <c r="H997" s="35"/>
     </row>
     <row r="998" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -36630,6 +36742,69 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A741:B742"/>
+    <mergeCell ref="G741:G742"/>
+    <mergeCell ref="A753:B754"/>
+    <mergeCell ref="G753:G754"/>
+    <mergeCell ref="A774:B775"/>
+    <mergeCell ref="G774:G775"/>
+    <mergeCell ref="A401:B402"/>
+    <mergeCell ref="G401:G402"/>
+    <mergeCell ref="A554:B555"/>
+    <mergeCell ref="G554:G555"/>
+    <mergeCell ref="G405:H411"/>
+    <mergeCell ref="A273:B274"/>
+    <mergeCell ref="G273:G274"/>
+    <mergeCell ref="A336:B337"/>
+    <mergeCell ref="G336:G337"/>
+    <mergeCell ref="A327:B328"/>
+    <mergeCell ref="G327:G328"/>
+    <mergeCell ref="A181:B182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A196:B197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="A154:B155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="A166:B167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="A119:B120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A130:B131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A792:B793"/>
+    <mergeCell ref="G792:G793"/>
+    <mergeCell ref="A824:B825"/>
+    <mergeCell ref="G824:G825"/>
+    <mergeCell ref="A833:B834"/>
+    <mergeCell ref="G833:G834"/>
+    <mergeCell ref="A841:B842"/>
+    <mergeCell ref="G841:G842"/>
+    <mergeCell ref="A853:B854"/>
+    <mergeCell ref="G853:G854"/>
+    <mergeCell ref="A861:B862"/>
+    <mergeCell ref="G861:G862"/>
+    <mergeCell ref="A874:B875"/>
+    <mergeCell ref="G874:G875"/>
+    <mergeCell ref="A887:B888"/>
+    <mergeCell ref="G887:G888"/>
+    <mergeCell ref="A914:B915"/>
+    <mergeCell ref="G914:G915"/>
+    <mergeCell ref="A940:B941"/>
+    <mergeCell ref="G940:G941"/>
+    <mergeCell ref="A923:B924"/>
+    <mergeCell ref="G923:G924"/>
+    <mergeCell ref="A949:B950"/>
+    <mergeCell ref="G949:G950"/>
     <mergeCell ref="A985:B986"/>
     <mergeCell ref="G985:G986"/>
     <mergeCell ref="A996:B997"/>
@@ -36640,69 +36815,6 @@
     <mergeCell ref="G965:G966"/>
     <mergeCell ref="A973:B974"/>
     <mergeCell ref="G973:G974"/>
-    <mergeCell ref="A940:B941"/>
-    <mergeCell ref="G940:G941"/>
-    <mergeCell ref="A923:B924"/>
-    <mergeCell ref="G923:G924"/>
-    <mergeCell ref="A949:B950"/>
-    <mergeCell ref="G949:G950"/>
-    <mergeCell ref="A874:B875"/>
-    <mergeCell ref="G874:G875"/>
-    <mergeCell ref="A887:B888"/>
-    <mergeCell ref="G887:G888"/>
-    <mergeCell ref="A914:B915"/>
-    <mergeCell ref="G914:G915"/>
-    <mergeCell ref="A841:B842"/>
-    <mergeCell ref="G841:G842"/>
-    <mergeCell ref="A853:B854"/>
-    <mergeCell ref="G853:G854"/>
-    <mergeCell ref="A861:B862"/>
-    <mergeCell ref="G861:G862"/>
-    <mergeCell ref="A792:B793"/>
-    <mergeCell ref="G792:G793"/>
-    <mergeCell ref="A824:B825"/>
-    <mergeCell ref="G824:G825"/>
-    <mergeCell ref="A833:B834"/>
-    <mergeCell ref="G833:G834"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="A119:B120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A130:B131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="A181:B182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A196:B197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="A138:B139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="A154:B155"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="A166:B167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="A273:B274"/>
-    <mergeCell ref="G273:G274"/>
-    <mergeCell ref="A336:B337"/>
-    <mergeCell ref="G336:G337"/>
-    <mergeCell ref="A327:B328"/>
-    <mergeCell ref="G327:G328"/>
-    <mergeCell ref="A401:B402"/>
-    <mergeCell ref="G401:G402"/>
-    <mergeCell ref="A554:B555"/>
-    <mergeCell ref="G554:G555"/>
-    <mergeCell ref="G405:H411"/>
-    <mergeCell ref="A741:B742"/>
-    <mergeCell ref="G741:G742"/>
-    <mergeCell ref="A753:B754"/>
-    <mergeCell ref="G753:G754"/>
-    <mergeCell ref="A774:B775"/>
-    <mergeCell ref="G774:G775"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -37065,7 +37177,7 @@
       <c r="H2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="141" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="91" t="s">
@@ -37105,7 +37217,7 @@
       <c r="H3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="141" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="91" t="s">
@@ -37145,7 +37257,7 @@
       <c r="H4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="141" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -37180,7 +37292,7 @@
       <c r="H5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="156" t="s">
+      <c r="I5" s="142" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="22" t="s">
@@ -37215,7 +37327,7 @@
       <c r="H6" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="141" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="22" t="s">
@@ -37250,7 +37362,7 @@
       <c r="H7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="155" t="s">
+      <c r="I7" s="141" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="22" t="s">
@@ -37290,7 +37402,7 @@
       <c r="H8" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="155" t="s">
+      <c r="I8" s="141" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="22" t="s">
@@ -37325,7 +37437,7 @@
       <c r="H9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="141" t="s">
         <v>48</v>
       </c>
       <c r="J9" s="91" t="s">
@@ -37362,7 +37474,7 @@
       <c r="H10" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="141" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="22" t="s">
@@ -37397,7 +37509,7 @@
       <c r="H11" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="141" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="91" t="s">
@@ -37434,7 +37546,7 @@
       <c r="H12" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="141" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="22" t="s">
@@ -37469,7 +37581,7 @@
       <c r="H13" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="155" t="s">
+      <c r="I13" s="141" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="91" t="s">
@@ -37506,7 +37618,7 @@
       <c r="H14" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="155" t="s">
+      <c r="I14" s="141" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="91" t="s">
@@ -37543,7 +37655,7 @@
       <c r="H15" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="155" t="s">
+      <c r="I15" s="141" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="22" t="s">
@@ -37580,7 +37692,7 @@
       <c r="H16" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="155" t="s">
+      <c r="I16" s="141" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="22" t="s">
@@ -37620,7 +37732,7 @@
       <c r="H17" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="155" t="s">
+      <c r="I17" s="141" t="s">
         <v>78</v>
       </c>
       <c r="J17" s="22" t="s">
@@ -37655,7 +37767,7 @@
       <c r="H18" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="155" t="s">
+      <c r="I18" s="141" t="s">
         <v>82</v>
       </c>
       <c r="J18" s="22" t="s">
@@ -37690,7 +37802,7 @@
       <c r="H19" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="155" t="s">
+      <c r="I19" s="141" t="s">
         <v>85</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -37730,7 +37842,7 @@
       <c r="H20" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="155" t="s">
+      <c r="I20" s="141" t="s">
         <v>90</v>
       </c>
       <c r="J20" s="22" t="s">
@@ -37764,7 +37876,7 @@
       <c r="H21" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="155" t="s">
+      <c r="I21" s="141" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="22" t="s">
@@ -37799,7 +37911,7 @@
       <c r="H22" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="155" t="s">
+      <c r="I22" s="141" t="s">
         <v>96</v>
       </c>
       <c r="J22" s="91" t="s">
@@ -37856,7 +37968,7 @@
       <c r="H24" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="155" t="s">
+      <c r="I24" s="141" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="22" t="s">
@@ -37891,7 +38003,7 @@
       <c r="H25" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="156" t="s">
+      <c r="I25" s="142" t="s">
         <v>104</v>
       </c>
       <c r="J25" s="91" t="s">
@@ -37928,7 +38040,7 @@
       <c r="H26" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="155" t="s">
+      <c r="I26" s="141" t="s">
         <v>106</v>
       </c>
       <c r="J26" s="22" t="s">
@@ -37963,7 +38075,7 @@
       <c r="H27" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="155" t="s">
+      <c r="I27" s="141" t="s">
         <v>108</v>
       </c>
       <c r="J27" s="22" t="s">
@@ -37998,7 +38110,7 @@
       <c r="H28" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="155" t="s">
+      <c r="I28" s="141" t="s">
         <v>111</v>
       </c>
       <c r="J28" s="22" t="s">
@@ -38033,7 +38145,7 @@
       <c r="H29" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="155" t="s">
+      <c r="I29" s="141" t="s">
         <v>114</v>
       </c>
       <c r="J29" s="91" t="s">
@@ -38070,7 +38182,7 @@
       <c r="H30" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="155" t="s">
+      <c r="I30" s="141" t="s">
         <v>117</v>
       </c>
       <c r="J30" s="22" t="s">
@@ -38105,7 +38217,7 @@
       <c r="H31" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="155" t="s">
+      <c r="I31" s="141" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="91" t="s">
@@ -38142,7 +38254,7 @@
       <c r="H32" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="156" t="s">
+      <c r="I32" s="142" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="22" t="s">
@@ -38177,7 +38289,7 @@
       <c r="H33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="155" t="s">
+      <c r="I33" s="141" t="s">
         <v>127</v>
       </c>
       <c r="J33" s="91" t="s">
@@ -38214,7 +38326,7 @@
       <c r="H34" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="155" t="s">
+      <c r="I34" s="141" t="s">
         <v>131</v>
       </c>
       <c r="J34" s="22" t="s">
@@ -38249,7 +38361,7 @@
       <c r="H35" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="155" t="s">
+      <c r="I35" s="141" t="s">
         <v>134</v>
       </c>
       <c r="J35" s="22" t="s">
@@ -38284,7 +38396,7 @@
       <c r="H36" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="155" t="s">
+      <c r="I36" s="141" t="s">
         <v>139</v>
       </c>
       <c r="J36" s="22" t="s">
@@ -38319,7 +38431,7 @@
       <c r="H37" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="155" t="s">
+      <c r="I37" s="141" t="s">
         <v>142</v>
       </c>
       <c r="J37" s="22" t="s">
@@ -38354,7 +38466,7 @@
       <c r="H38" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="156" t="s">
+      <c r="I38" s="142" t="s">
         <v>145</v>
       </c>
       <c r="J38" s="22" t="s">
@@ -38387,7 +38499,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="130"/>
-      <c r="I39" s="158" t="s">
+      <c r="I39" s="144" t="s">
         <v>785</v>
       </c>
       <c r="J39" s="22" t="s">
@@ -38407,7 +38519,7 @@
       <c r="C40" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="I40" s="157"/>
+      <c r="I40" s="143"/>
       <c r="J40" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -39011,2162 +39123,2280 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP50"/>
+  <dimension ref="A1:AQ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" zoomScalePageLayoutView="195" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="74.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="15.6640625" customWidth="1"/>
-    <col min="39" max="42" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="15.6640625" customWidth="1"/>
+    <col min="40" max="43" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="131" t="s">
+        <v>786</v>
+      </c>
+      <c r="C1" s="131" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="D1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="E1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="F1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="G1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="H1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="I1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="146" t="s">
+      <c r="J1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="146" t="s">
+      <c r="K1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="146" t="s">
+      <c r="L1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="M1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="146" t="s">
+      <c r="N1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="146" t="s">
+      <c r="O1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="146" t="s">
+      <c r="P1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="146" t="s">
+      <c r="Q1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="146" t="s">
+      <c r="R1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="R1" s="146" t="s">
+      <c r="S1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="146" t="s">
+      <c r="T1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="T1" s="146" t="s">
+      <c r="U1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="U1" s="146" t="s">
+      <c r="V1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="V1" s="146" t="s">
+      <c r="W1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="W1" s="146" t="s">
+      <c r="X1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="X1" s="146" t="s">
+      <c r="Y1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="146" t="s">
+      <c r="Z1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="Z1" s="146" t="s">
+      <c r="AA1" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="146" t="s">
+      <c r="AB1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AB1" s="146" t="s">
+      <c r="AC1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AC1" s="146" t="s">
+      <c r="AD1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AD1" s="146" t="s">
+      <c r="AE1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AE1" s="146" t="s">
+      <c r="AF1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AF1" s="146" t="s">
+      <c r="AG1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AG1" s="146" t="s">
+      <c r="AH1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="146" t="s">
+      <c r="AI1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AI1" s="146" t="s">
+      <c r="AJ1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AJ1" s="146" t="s">
+      <c r="AK1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AK1" s="146" t="s">
+      <c r="AL1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AL1" s="146" t="s">
+      <c r="AM1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AM1" s="146" t="s">
+      <c r="AN1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AN1" s="146" t="s">
+      <c r="AO1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AO1" s="146" t="s">
+      <c r="AP1" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="AP1" s="146" t="s">
+      <c r="AQ1" s="132" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="133" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>225</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>226</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>227</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>229</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>230</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>231</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>232</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>233</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>234</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>235</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>236</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>237</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>238</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>239</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>240</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>243</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>244</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>245</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>246</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="43" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>248</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>249</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>250</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>251</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>252</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>253</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>254</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>255</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>257</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>258</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>259</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="43" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="135" t="s">
         <v>270</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>260</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>261</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>262</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>263</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>264</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>265</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>266</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>267</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>268</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>269</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>271</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>273</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>274</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>275</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>276</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>277</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>278</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>279</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>280</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>283</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>285</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>286</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>287</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>288</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>289</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>290</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>291</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>292</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>293</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>294</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="C7" s="135" t="s">
         <v>325</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>297</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>296</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>298</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>299</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>300</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>301</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>302</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>303</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>304</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>305</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>306</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>307</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>308</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>309</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>310</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>311</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>312</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>313</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>314</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>315</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>316</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>317</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>318</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>319</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>321</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>322</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>323</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>324</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="C8" s="135" t="s">
         <v>326</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>279</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>276</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>330</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>327</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>328</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="C9" s="135" t="s">
         <v>339</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>331</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>332</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>333</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>334</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>335</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>336</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>337</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>338</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>340</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>341</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>342</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>344</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>345</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="43" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="134" t="s">
         <v>347</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>348</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>349</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>350</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>352</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>353</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>354</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>355</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>356</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>357</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>358</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>359</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>360</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>361</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>362</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>363</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>358</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>364</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>365</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>366</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" s="134" t="s">
         <v>368</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>369</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>370</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>371</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>372</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>373</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>374</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>375</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>376</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="43" t="s">
+        <v>796</v>
+      </c>
+      <c r="C12" s="134" t="s">
         <v>378</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="s">
         <v>379</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>380</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>381</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>382</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>383</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>384</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>385</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>386</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="43" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="135" t="s">
         <v>388</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>389</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>390</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>391</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>349</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>392</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>393</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>394</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>395</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>396</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>397</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>398</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>399</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>309</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>400</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>401</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>402</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>403</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>404</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>405</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>406</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>407</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="135" t="s">
         <v>409</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>419</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>420</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>349</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>330</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>421</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>422</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>423</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>424</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>425</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>426</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>279</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>410</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>411</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>412</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>413</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>414</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>415</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>416</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>417</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="C15" s="134" t="s">
         <v>427</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>428</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>429</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>430</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>431</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>432</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>433</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>434</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>435</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>436</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>437</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>438</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>439</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>440</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>441</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="43" t="s">
+        <v>799</v>
+      </c>
+      <c r="C16" s="134" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>456</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>330</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>444</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>445</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>446</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>447</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>448</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>449</v>
       </c>
-      <c r="AG16" s="150" t="s">
+      <c r="AH16" s="136" t="s">
         <v>450</v>
       </c>
-      <c r="AH16" s="150" t="s">
+      <c r="AI16" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="AI16" s="150" t="s">
+      <c r="AJ16" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="AJ16" s="150" t="s">
+      <c r="AK16" s="136" t="s">
         <v>453</v>
       </c>
-      <c r="AK16" s="150" t="s">
+      <c r="AL16" s="136" t="s">
         <v>454</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="43" t="s">
+        <v>800</v>
+      </c>
+      <c r="C17" s="135" t="s">
         <v>466</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>457</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>458</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>459</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>334</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>460</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>461</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>462</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>463</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>464</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>465</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>467</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>468</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>469</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>470</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>471</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AH17" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="C18" s="135" t="s">
         <v>478</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>473</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>474</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>475</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>476</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>477</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>479</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>480</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>481</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="C19" s="135" t="s">
         <v>483</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>486</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>487</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>488</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>489</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>490</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>491</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>492</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>493</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>494</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>495</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>496</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>497</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>498</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>499</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="86" t="s">
+        <v>803</v>
+      </c>
+      <c r="C20" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>502</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>503</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>504</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>505</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>506</v>
       </c>
-      <c r="H20" s="153" t="s">
+      <c r="I20" s="139" t="s">
         <v>507</v>
       </c>
-      <c r="I20" s="153" t="s">
+      <c r="J20" s="139" t="s">
         <v>508</v>
       </c>
-      <c r="J20" s="153" t="s">
+      <c r="K20" s="139" t="s">
         <v>509</v>
       </c>
-      <c r="K20" s="153" t="s">
+      <c r="L20" s="139" t="s">
         <v>510</v>
       </c>
-      <c r="L20" s="153" t="s">
+      <c r="M20" s="139" t="s">
         <v>511</v>
       </c>
-      <c r="M20" s="153" t="s">
+      <c r="N20" s="139" t="s">
         <v>512</v>
       </c>
-      <c r="N20" s="153" t="s">
+      <c r="O20" s="139" t="s">
         <v>513</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>514</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>515</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>516</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>517</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>518</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>519</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>520</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>521</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>522</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>523</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>524</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>525</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>526</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
         <v>527</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>528</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="43" t="s">
+        <v>804</v>
+      </c>
+      <c r="C21" s="135" t="s">
         <v>539</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>330</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>530</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>531</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>309</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>349</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>532</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>533</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>534</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>535</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>536</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>537</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="88" t="s">
+        <v>805</v>
+      </c>
+      <c r="C22" s="137" t="s">
         <v>540</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>541</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>542</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>543</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>544</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>545</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>546</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>547</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>548</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>549</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>550</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>551</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>552</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>553</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>554</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>555</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="88" t="s">
+        <v>806</v>
+      </c>
+      <c r="C23" s="137" t="s">
         <v>557</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>558</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>559</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>560</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>561</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>562</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>563</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>564</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>565</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>567</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>568</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>569</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>570</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="88" t="s">
+        <v>807</v>
+      </c>
+      <c r="C24" s="137" t="s">
         <v>566</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="s">
         <v>587</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="88" t="s">
+        <v>808</v>
+      </c>
+      <c r="C25" s="137" t="s">
         <v>573</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>574</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>575</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>576</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>577</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>578</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>579</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>580</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>581</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>582</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>583</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>584</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>585</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="88" t="s">
+        <v>809</v>
+      </c>
+      <c r="C26" s="137" t="s">
         <v>589</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>590</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>591</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>592</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>593</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>594</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>595</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>596</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="88" t="s">
+        <v>810</v>
+      </c>
+      <c r="C27" s="137" t="s">
         <v>598</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>599</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>600</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>601</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>602</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>603</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>604</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>605</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>606</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>607</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>608</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>609</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>610</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>611</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>612</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>613</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="88" t="s">
+        <v>811</v>
+      </c>
+      <c r="C28" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>616</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>617</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>618</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>619</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>620</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>621</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>622</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>623</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>624</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>625</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>626</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>627</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>628</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>629</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>630</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>631</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>632</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>633</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>634</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>635</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="88" t="s">
+        <v>812</v>
+      </c>
+      <c r="C29" s="137" t="s">
         <v>637</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>639</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>638</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>640</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>641</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>642</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>643</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>644</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>645</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>646</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>647</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>648</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>649</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>650</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>651</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>652</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>653</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>654</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>655</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>656</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>657</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>658</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="C30" s="137" t="s">
         <v>661</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>660</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>662</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>663</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>664</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>665</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>666</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>667</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>668</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>669</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>670</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="C31" s="137" t="s">
         <v>673</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>672</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>674</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>675</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>676</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>677</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>678</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>679</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>680</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>681</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>682</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>683</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>684</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="88" t="s">
+        <v>815</v>
+      </c>
+      <c r="C32" s="137" t="s">
         <v>686</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>687</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>688</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>689</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>690</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>691</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>692</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>693</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>694</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>695</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="88" t="s">
+        <v>816</v>
+      </c>
+      <c r="C33" s="137" t="s">
         <v>697</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>698</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>642</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>699</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>700</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>701</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>702</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>703</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>704</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>705</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>706</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>707</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>708</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="88" t="s">
+        <v>817</v>
+      </c>
+      <c r="C34" s="137" t="s">
         <v>710</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>711</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>712</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>713</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>714</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>715</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>716</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>717</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>718</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>719</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>720</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>721</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>722</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>723</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>724</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="88" t="s">
+        <v>818</v>
+      </c>
+      <c r="C35" s="137" t="s">
         <v>726</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>727</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>728</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>729</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>730</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>731</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>732</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>733</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="154" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="140" t="s">
         <v>735</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="159" t="s">
+        <v>821</v>
+      </c>
+      <c r="C36" s="137" t="s">
         <v>737</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>738</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>739</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>740</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>741</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>742</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>743</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>744</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>745</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>746</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>747</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>748</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>749</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="154" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37" s="140" t="s">
         <v>736</v>
       </c>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="159" t="s">
+        <v>822</v>
+      </c>
+      <c r="C37" s="137" t="s">
         <v>737</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>751</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>748</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>745</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>752</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>753</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>744</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>754</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>755</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>756</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>747</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>757</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>758</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>749</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>759</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="88" t="s">
+        <v>819</v>
+      </c>
+      <c r="C38" s="137" t="s">
         <v>760</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>761</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>762</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>763</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>764</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>765</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>766</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>767</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>768</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>769</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="88" t="s">
+        <v>820</v>
+      </c>
+      <c r="C39" s="137" t="s">
         <v>771</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>772</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>773</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>774</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>775</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>776</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>777</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>778</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>779</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>780</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>781</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>782</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B46"/>
-      <c r="W46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50"/>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+      <c r="X46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://www.cde.ca.gov/be/ms/"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://www.boe.ca.gov/info/about.htm"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://www.bsc.ca.gov/abt_bsc/cbscmem.aspx"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://www.coastal.ca.gov/roster.html"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://www.ftb.ca.gov/aboutFTB/boardMembers.shtml?WT.mc_id=AboutUs_BoardBiographies"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://www.hsr.ca.gov/Board/Members/index.html"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://www.calpers.ca.gov/page/about/board/board-members"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://www.calstrs.com/board-members"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://cwc.ca.gov/Pages/Members.aspx"/>
-    <hyperlink ref="B18" r:id="rId16" display="http://www.swrcb.ca.gov/about_us/board_members/"/>
-    <hyperlink ref="B19" r:id="rId17" display="http://board.coveredca.com/"/>
-    <hyperlink ref="B20" r:id="rId18" display="http://www.catc.ca.gov/ctcstaff/members.htm"/>
-    <hyperlink ref="B21" r:id="rId19" display="http://www.spwb.ca.gov/members/"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B38" r:id="rId34"/>
-    <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://www.cde.ca.gov/be/ms/"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://www.boe.ca.gov/info/about.htm"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://www.bsc.ca.gov/abt_bsc/cbscmem.aspx"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://www.coastal.ca.gov/roster.html"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://www.ftb.ca.gov/aboutFTB/boardMembers.shtml?WT.mc_id=AboutUs_BoardBiographies"/>
+    <hyperlink ref="C9" r:id="rId7" display="http://www.hsr.ca.gov/Board/Members/index.html"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://www.calpers.ca.gov/page/about/board/board-members"/>
+    <hyperlink ref="C14" r:id="rId12" display="http://www.calstrs.com/board-members"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://cwc.ca.gov/Pages/Members.aspx"/>
+    <hyperlink ref="C18" r:id="rId16" display="http://www.swrcb.ca.gov/about_us/board_members/"/>
+    <hyperlink ref="C19" r:id="rId17" display="http://board.coveredca.com/"/>
+    <hyperlink ref="C20" r:id="rId18" display="http://www.catc.ca.gov/ctcstaff/members.htm"/>
+    <hyperlink ref="C21" r:id="rId19" display="http://www.spwb.ca.gov/members/"/>
+    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="C25" r:id="rId23"/>
+    <hyperlink ref="C26" r:id="rId24"/>
+    <hyperlink ref="C27" r:id="rId25"/>
+    <hyperlink ref="C28" r:id="rId26"/>
+    <hyperlink ref="C29" r:id="rId27"/>
+    <hyperlink ref="C30" r:id="rId28"/>
+    <hyperlink ref="C31" r:id="rId29"/>
+    <hyperlink ref="C32" r:id="rId30"/>
+    <hyperlink ref="C33" r:id="rId31"/>
+    <hyperlink ref="C34" r:id="rId32"/>
+    <hyperlink ref="C35" r:id="rId33"/>
+    <hyperlink ref="C38" r:id="rId34"/>
+    <hyperlink ref="C39" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
